--- a/TestData_K/K_68Bus_IBR_Load.xlsx
+++ b/TestData_K/K_68Bus_IBR_Load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData_K\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF0E3A3-1A47-40E7-BFE7-044F6082A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120C109C-264B-48CC-89C2-C7168EAA1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
